--- a/graph_generation/results/hermes_llama2/level_6/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_6/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>prompt</t>
   </si>
@@ -78,21 +78,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 0 0 4 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0
- E 1 0 0 0 0 3 0 0 4 0 0 0 0 0 0
- F 0 4 0 0 3 0 2 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 2 0 0 0 0 5 0 0 0
- I 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 2 0 5 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 2 0 1 0
- L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 2 0 4
- O 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
+ B 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0
+ E 3 0 0 0 0 5 0 0 5 0 0 0 0 0 0
+ F 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 4 0 0 4 0 0 0 0
+ H 0 0 0 3 0 0 4 0 0 0 0 2 0 0 0
+ I 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 5 0 1 0 0
+ K 0 0 0 0 0 0 4 0 0 5 0 2 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 2 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
     </t>
   </si>
   <si>
@@ -144,22 +144,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- F 0 1 0 0 2 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 3 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 3 0 4 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0
+ A 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 5 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 4 0 0 5 0 0 0 0 0
+ H 0 0 0 4 0 0 4 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 4 0 0 2 0 0 0
+ J 0 0 0 0 0 2 0 0 4 0 4 0 0 1 0 0
+ K 0 0 0 0 0 0 5 0 0 4 0 2 0 0 5 0
+ L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
     </t>
   </si>
   <si>
@@ -211,89 +211,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 4 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 2 0 0 2 0 0 0 0 0 0
- G 0 0 2 0 0 2 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 3 0 0 2 0 0 0
- J 0 0 0 0 0 2 0 0 3 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 1 0 0 5 0
- L 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 3 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
-Example 2: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 4 0 2 0 0 0 0 0
- B 4 0 4 0 3 0 0 0 0
- C 0 4 0 0 0 3 0 0 0
- D 2 0 0 0 0 0 4 0 0
- E 0 3 0 0 0 3 0 0 0
- F 0 0 3 0 3 0 0 0 1
- G 0 0 0 4 0 0 0 3 0
- H 0 0 0 0 0 0 3 0 4
- I 0 0 0 0 0 1 0 4 0
-Solution: A -&gt; B -&gt; E -&gt; F -&gt; I
-Example 3: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 4 0 5 0 0 5 0 0 0 0 0
- H 0 0 0 3 0 0 5 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 2 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 1 0
- L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 4 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 3 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 4 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 5 0 0 0
+ J 0 0 0 0 0 3 0 0 1 0 5 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0
     </t>
   </si>
   <si>
@@ -345,21 +278,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0
- E 4 0 0 0 0 2 0 0 2 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 1 0 0 0 5 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0
- K 0 0 0 0 0 0 0 5 0 0 0 0 0 0 2
- L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 3 0 2 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
+ A 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 3 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 3 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 4 0 0 0 0 0 0
+ F 0 0 5 0 0 0 4 0 0 4 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0
+ J 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 2 0 0 0 0 4
+ L 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 4 0 5 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
     </t>
   </si>
   <si>
@@ -411,22 +344,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 4 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 5 0 0 1 0 0
- K 0 0 0 0 0 0 4 0 0 5 0 2 0 0 1 0
- L 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 2 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0
+ A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 5 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 4 0 5 0 0 4 0 0 0 0 0 0
+ G 0 0 2 0 0 5 0 4 0 0 5 0 0 0 0 0
+ H 0 0 0 3 0 0 4 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 5 0 0 4 0 0
+ K 0 0 0 0 0 0 5 0 0 5 0 4 0 0 2 0
+ L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
     </t>
   </si>
   <si>
@@ -478,22 +411,87 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
- F 0 1 0 0 4 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 4 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 4 0 3 0 0 1 0 0
- K 0 0 0 0 0 0 2 0 0 3 0 3 0 0 4 0
- L 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 4 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 1 0 0 5 0 0 0 0 0
+ H 0 0 0 3 0 0 1 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 5 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+Example 2: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 4 0 2 0 0 0 0 0
+ B 4 0 4 0 3 0 0 0 0
+ C 0 4 0 0 0 3 0 0 0
+ D 2 0 0 0 0 0 4 0 0
+ E 0 3 0 0 0 3 0 0 0
+ F 0 0 3 0 3 0 0 0 1
+ G 0 0 0 4 0 0 0 3 0
+ H 0 0 0 0 0 0 3 0 4
+ I 0 0 0 0 0 1 0 4 0
+Solution: A -&gt; B -&gt; E -&gt; F -&gt; I
+Example 3: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 4 0 5 0 0 5 0 0 0 0 0
+ H 0 0 0 3 0 0 5 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 2 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
+Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 1 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 5 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ E 0 1 0 0 0 2 0 0 3 0 0 0 0 0
+ F 0 0 5 0 2 0 2 0 0 4 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 4 0 0 0
+ H 0 0 0 3 0 0 0 0 2 0 0 0 0 0
+ I 0 0 0 0 3 0 0 2 0 5 0 5 0 0
+ J 0 0 0 0 0 4 0 0 5 0 0 0 4 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+ M 0 0 0 0 0 0 0 0 0 4 0 4 0 4
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
@@ -545,22 +543,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
- F 0 5 0 0 4 0 3 0 0 4 0 0 0 0 0 0
- G 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 5 0 0 3 0 0 0
- J 0 0 0 0 0 4 0 0 5 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 4 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 5 0 0 0
+ J 0 0 0 0 0 2 0 0 1 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
     </t>
   </si>
   <si>
@@ -612,22 +610,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- F 0 3 0 0 4 0 2 0 0 3 0 0 0 0 0 0
- G 0 0 5 0 0 2 0 1 0 0 5 0 0 0 0 0
- H 0 0 0 4 0 0 1 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 5 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
+ A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
+ F 0 4 0 0 3 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 3 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 5 0 0 5 0 0 0
+ J 0 0 0 0 0 1 0 0 5 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 4 0 0 5 0
+ L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0
     </t>
   </si>
   <si>
@@ -679,74 +677,86 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0
- F 0 2 0 0 5 0 2 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 2 0 0 5 0 0 0
- J 0 0 0 0 0 3 0 0 2 0 4 0 0 4 0 0
- K 0 0 0 0 0 0 2 0 0 4 0 5 0 0 4 0
- L 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
+ A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 5 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 2 0 0 2 0 0 0 0 0
+ H 0 0 0 1 0 0 2 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0
+ J 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 2 0 0 3 0
+ L 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; N -&gt; O</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
+    <t>A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
     <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O. The sequence of nodes is A, E, F, G, K, and O. The total cost of this path is 1 + 3 + 2 + 2 + 1 + 3 = 15.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 0 + 1 + 2 + 3 + 4 + 4 + 3 = 19.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 5 + 2 + 2 + 3 + 1 + 3 + 3 = 19.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 1 + 1 + 4 + 2 + 4 + 1 + 3 = 19.</t>
+    <t>The least cost path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O. The sequence of nodes is A, E, F, G, K, L, and O. The total cost of this path is 3 + 5 + 1 + 4 + 2 + 2 + 3 = 20.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 2 + 1 + 5 + 4 + 2 + 4 + 3 = 21.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 3 + 3 + 5 + 5 + 4 + 5 + 4 = 30.</t>
   </si>
   <si>
     <t>The least cost path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O. The sequence of nodes is A, E, F, G, K, and O.</t>
   </si>
   <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 1 + 3 + 4 + 5 + 4 + 5 + 3 = 25.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 2 + 1 + 4 + 2 + 4 + 3 + 3 = 21.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 4 + 3 + 4 + 5 + 4 + 5 + 3 = 30.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 4 + 1 + 2 + 2 + 4 + 4 + 4 = 23.</t>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 0 + 1 + 2 + 4 + 5 + 3 + 3 = 19.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 1 + 3 + 1 + 5 + 2 + 5 + 3 = 23.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node N is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P -&gt; N. The sequence of nodes is A, E, F, G, K, O, P, and N.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 0 + 1 + 3 + 4 + 2 + 4 + 3 = 19.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 1 + 3 + 4 + 5 + 2 + 4 + 3 = 22.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P. The sequence of nodes is A, E, F, G, K, O, and P. The total cost of this path is 4 + 3 + 5 + 2 + 4 + 5 + 3 = 27.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1142,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1146,10 +1156,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1160,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1174,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1185,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1199,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1213,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1227,13 +1237,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1241,13 +1251,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1255,13 +1265,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
